--- a/res/world.xlsx
+++ b/res/world.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="172">
   <si>
     <t>Name</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t xml:space="preserve">A very large man-eating snake rests, coiled in the center of the room.  It doesn't look like there is any way around it.  </t>
+  </si>
+  <si>
+    <t>FindSwordRoom1</t>
+  </si>
+  <si>
+    <t>You enter a room which has an ominous glow eminating from a center-piece in the middle of the room. On the stone alter a shining knight's sword lies.  This appears to be a tomb.  The alter reads, "Noble and brave Arturius, son of Theryan, fought and died for the Order of Rosehill."  You need a way to defend yourself, and this sword isn't being used...</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1600,6 +1606,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1611,7 +1631,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1723,16 +1743,16 @@
         <v>138</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>60</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">

--- a/res/world.xlsx
+++ b/res/world.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="460" windowWidth="25140" windowHeight="18540" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="52120" yWindow="460" windowWidth="31820" windowHeight="23740" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="348">
   <si>
     <t>Name</t>
   </si>
@@ -517,15 +517,9 @@
     <t>A pistol firing large single-fire rounds</t>
   </si>
   <si>
-    <t>An autonomous military-grade defense unit.</t>
-  </si>
-  <si>
     <t>Defense Drone</t>
   </si>
   <si>
-    <t>The broken and shattered remains of a military-grade defense drone lay scattered across the floor</t>
-  </si>
-  <si>
     <t>You exit the medical bay through an automated steel door that slides open when you approach.  As you enter the adjacent hall it becomes more evident that something horrible happened here.  Looking down the hall in each direction you see broken class, debri, rubble.... and blood?  What happened here?!</t>
   </si>
   <si>
@@ -643,9 +637,6 @@
     <t>L1MainCorridorN1</t>
   </si>
   <si>
-    <t>As you emerge from the medical wing bulkhead door you find yourself in a large corridor running east and west.  The length of the corridor seems astounding as you peer in both directions with no end in sight.  Many more bulkhead doors line both sides of the corridor in each direction.  Similar to the medical wing, the condition of this corridor is in ruins.</t>
-  </si>
-  <si>
     <t>A computer terminal with a queued video is ready to be played.</t>
   </si>
   <si>
@@ -697,9 +688,6 @@
     <t>Blood trails on the ground seem to lead toward the mess hall.</t>
   </si>
   <si>
-    <t>Personal Log, Benson, Entry 233</t>
-  </si>
-  <si>
     <t>CWO Benson's personal video log computer terminal.</t>
   </si>
   <si>
@@ -721,9 +709,6 @@
     <t>Another personal barracks, inhabited by "Stiles, R. - Master Chief Petty Officer."  Unfortunately, the chaos seems to have made it's way here, as the corpse of MCPO Stiles still lies in his blood covered bunk.  As you walk through, you kick a container with your foot.  Maybe there is something valuable inside.</t>
   </si>
   <si>
-    <t>Container35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Master Chief Petty Officer Stile's personal quarters.  He lies dead in his bunk.  The room in disarray. </t>
   </si>
   <si>
@@ -782,16 +767,354 @@
   </si>
   <si>
     <t>Your light shines on a man on the ground against the wall, wearing a white medical uniform with a red cross on the breast pocket.  He is covered in his own blood, holding a large gash in his stomach.  He sees you and slowly begins to whisper something as his body shakes.  You move in closer to the doctor to hear him mumble, "... run ..." as his last word.  Good god... he's dead.</t>
+  </si>
+  <si>
+    <t>Personal Log: Benson - Entry 233</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW7</t>
+  </si>
+  <si>
+    <t>As you turn to face another corridor expecting to see more carnage, you are surprised by the prestine state of hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks cooridor.</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW8</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As you continue down this corridor, the starboard wall is entirely made of a glass-like material, making a transparent, wall-sized window to view the endless expanse of space.  Nebulas, star clusters, and distant planetary systems can be easily admired.  There is a calming sensation that arrives from the tranquility of the view, and for a moment, you forget your circumstance and escape in mind into the great void beyond. </t>
+  </si>
+  <si>
+    <t>With the glass wall on the starboard, the port side contains additional barracks quarters and offices.  Maybe there will find something useful.</t>
+  </si>
+  <si>
+    <t>L1BarracksNW4</t>
+  </si>
+  <si>
+    <t>Vladneka - Encrypted: Access Code Rotation</t>
+  </si>
+  <si>
+    <t>Encrypted email on Lieutenant Commander Vladneka's personal terminal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff, as you know, our security policy mandates a weekly rotation of access codes for the armory.  This week's armory access code is: 22492. </t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW10</t>
+  </si>
+  <si>
+    <t>The wellkept barracks of "Vladneka, V. - Lieutenant Commander."  A personal terminal with an encrypted email is waiting to be read.</t>
+  </si>
+  <si>
+    <t>LC Vladneka's Personal Terminal</t>
+  </si>
+  <si>
+    <t>The personal terminal of Lieutenant Commander Vladneka</t>
+  </si>
+  <si>
+    <t>Vladneka Security Card</t>
+  </si>
+  <si>
+    <t>A key card belonging to Lieutenant Commander Vladneka</t>
+  </si>
+  <si>
+    <t>A prestine corridor to the north and south with funtional lighting and no visible debris or signs of struggle.</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW11</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW12</t>
+  </si>
+  <si>
+    <t>L1BarracksNW5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade." </t>
+  </si>
+  <si>
+    <t>The personal barracks of, "Vladneka, V. - Lieutenant Commander."  The room is wellkept and in straight order.  The bunk is made and the desk is neatly organized.  You check the terminal for logs and find a recent email that is encrypted.  You'll need LC Vladneka's access card to read it.</t>
+  </si>
+  <si>
+    <t>Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade."  The bunk is made, the desk is organized, the terminal is shut down, the floor is clea… wait… there's something small barely visible under the bed.  It's LC Vladneka's access card.  It's the only thing out of place, and in Vladneka's subordinate's room...</t>
+  </si>
+  <si>
+    <t>Container50</t>
+  </si>
+  <si>
+    <t>Container75</t>
+  </si>
+  <si>
+    <t>L1MessHall3</t>
+  </si>
+  <si>
+    <t>L1MessHall4</t>
+  </si>
+  <si>
+    <t>L1MessHall5</t>
+  </si>
+  <si>
+    <t>L1MessHall6</t>
+  </si>
+  <si>
+    <t>L1MessHall7</t>
+  </si>
+  <si>
+    <t>Additional overturned tables, chairs, and miscellaneous items are scattered about.  You continue to make your way through the rubble.</t>
+  </si>
+  <si>
+    <t>Amongst the trash you find a credits container.</t>
+  </si>
+  <si>
+    <t>A dead crew member under a table is wearing Platinum Boots.  They seem weak, but anything is better than walking barefoot through debris and rubble.</t>
+  </si>
+  <si>
+    <t>A dead crew member lies under a table.</t>
+  </si>
+  <si>
+    <t>L1BarracksNW6</t>
+  </si>
+  <si>
+    <t>You enter the barracks of "Traes, W. - Lieutenant." An empty room with the same furniture and appearances as other barracks.  The desk drawer is slightly ajar.</t>
+  </si>
+  <si>
+    <t>The empty room of "Traes, W. - Lieutenant" with the same furniture and appearances as other barracks.</t>
+  </si>
+  <si>
+    <t>Lieutenant Traes Desk</t>
+  </si>
+  <si>
+    <t>The personal desk of Lieutenant Traes</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW13</t>
+  </si>
+  <si>
+    <t>You continue to have fleeting reveries of this ship, and it's crew as you continue toward the mess hall.  You remember a portion of a conversation between the captain and you as you both walked this exact path before the mayhem.  The captain seemed worried, telling you not to insight a panic by exposing the information you just provided him to anyone else in the crew.  What was it that you told him?</t>
+  </si>
+  <si>
+    <t>Nearing the end of the barracks corridor, you recall another short memory of a conversation you overheard the captain having around the upcoming corner.  "…yes, he knows.  He told me about his concerns during his last rotation.  I told him not to mention it to anyone, but I don't know how long he will keep quiet.  We are going to have to do something about him quickly."</t>
+  </si>
+  <si>
+    <t>You recall another short memory of a conversation you overheard the captain having around the corner.  "…yes, he knows.  He told me about his concerns during his last rotation.  I told him not to mention it to anyone, but I don't know how long he will keep quiet.  We are going to have to do something about him quickly."</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW14</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW15</t>
+  </si>
+  <si>
+    <t>You arrive at the end of the corridor, and the corner, where your memory becomes even more clear.  The captain was speaking with Admiral Roussos.  Wow, whatever the captain was trying to cover up also had the Admiral involved.</t>
+  </si>
+  <si>
+    <t>Looking at the wall you see the stencil writing "&lt;- Barracks 100-105  |  Barracks 106-110 -&gt;".</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW16</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW17</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW18</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW19</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW20</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW21</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW22</t>
+  </si>
+  <si>
+    <t>L1WestCorridorNW23</t>
+  </si>
+  <si>
+    <t>L1WestStorageRoom1</t>
+  </si>
+  <si>
+    <t>L1BarracksNW7</t>
+  </si>
+  <si>
+    <t>L1BarracksNW8</t>
+  </si>
+  <si>
+    <t>L1BarracksNW9</t>
+  </si>
+  <si>
+    <t>L1BarracksNW10</t>
+  </si>
+  <si>
+    <t>L1BarracksNW11</t>
+  </si>
+  <si>
+    <t>Your light shines on a message written in dripping spray paint on the wall.  The message reads, "Safe Room -&gt;".  The paint is wet.  It must have been written recently.</t>
+  </si>
+  <si>
+    <t>You peer down another corridor with barracks doors on both sides.</t>
+  </si>
+  <si>
+    <t>More flickering lights on the ceiling and floor runners continue to indicate power issues.</t>
+  </si>
+  <si>
+    <t>Furniture Barracade</t>
+  </si>
+  <si>
+    <t>A barracade comprised of stacked furniture and miscellaneous items.</t>
+  </si>
+  <si>
+    <t>Debris from a deconstructed furniture barracade.</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>A long handled axe, suitable for clearing debris and breaking weak walls</t>
+  </si>
+  <si>
+    <t>Fixed to the wall is a fire safety station with an axe and water hose.  There is an empty space for a fire extinguisher, it must have been removed.</t>
+  </si>
+  <si>
+    <t>A fire safety station is fixed to the wall.  There is a firmly attached fire hose and an empty space for a fire extinguisher.</t>
+  </si>
+  <si>
+    <t>More flickering lights on the ceiling and floor runners continue to indicate power issues.  A barracade of stacked furniture and debris blocks the corridor. You must find something to clear the debris.</t>
+  </si>
+  <si>
+    <t>Short Cable</t>
+  </si>
+  <si>
+    <t>A short utility cable, suitable for holding your weight but not useful for long distances</t>
+  </si>
+  <si>
+    <t>A mostly empty 5x5' supply room with wall mounted shelves and racks.</t>
+  </si>
+  <si>
+    <t>Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barracade was designed to keep something, or someone, out.  But it didn't work.  While many of the bodies are completely intact, but very bloody, one of the bodies is missing a hand.  You roll the body over to see the badge reads, "Washington, D. - Rear Admiral."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barracade was designed to keep something, or someone, out.  But it didn't work. </t>
+  </si>
+  <si>
+    <t>EnemyRoom</t>
+  </si>
+  <si>
+    <t>The personal quarters of "Washington, D. - Rear Admiral."  You squeeze through the slightly ajar bulkhead door to discover a room of personal effects, clothes, files and paperwork strewn across the floor.  It appears a massive struggle took place here.  A large pool of blood can be seen under the bunk.  You lift the corner of the bed blanket to find the severed left hand of the Rear Admiral.  The hand has a plain, gold, wedding band on the ring finger.</t>
+  </si>
+  <si>
+    <t>The personal quarters of "Washington, D. - Rear Admiral."  You squeeze through the slightly ajar bulkhead door to discover a room of personal effects, clothes, files and paperwork strewn across the floor.  It appears a massive struggle took place here.  A large pool of blood can be seen under the bunk.</t>
+  </si>
+  <si>
+    <t>Washington's Severed Hand</t>
+  </si>
+  <si>
+    <t>The severed left hand of Rear Admiral Washington</t>
+  </si>
+  <si>
+    <t>Container100</t>
+  </si>
+  <si>
+    <t>Additional dead bodies of various crew members lay in odd, mangled, positions on the floor.</t>
+  </si>
+  <si>
+    <t>Ahead is the quarters of Captain Holden, R.  Unsure what evidence you are expecting to find inside, you cautiously enter.  The room is unusually structured and furnished; however, aside from appearances, you find a single canaster placed on top of a cleaned desk.  The canaster requires an executive officer's key card to access the contents.  But what could be inside?  This canaster is obviously significant, and may reveal the story of the secret the Captain was keeping.</t>
+  </si>
+  <si>
+    <t>Captain's Container</t>
+  </si>
+  <si>
+    <t>A small cylindrical container secured by key card access</t>
+  </si>
+  <si>
+    <t>Captain's Key</t>
+  </si>
+  <si>
+    <t>A small, old fashioned silver key attached to a dog tag chain</t>
+  </si>
+  <si>
+    <t>The quarters of Captain Holden, R.  The room is unusually structured and furnished</t>
+  </si>
+  <si>
+    <t>The door label reads, "Hernandez, G. - Chief Warrant Offier CWO5."  You enter the quarters to find a hovering defense drone with red lights.  It turns to the door and trains it's sights and barrels on you.</t>
+  </si>
+  <si>
+    <t>Footlocker</t>
+  </si>
+  <si>
+    <t>A personal effects footlocker at the base of the bunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Moore, A. - Chief Warrant Officer CWO4."  This barracks has a footlocker, unlike any other barracks you've seen.  </t>
+  </si>
+  <si>
+    <t>The barracks of "Tryniski, S. - Chief Warrant Officer CWO3."  A normal room, in slight dissarray, with a credit container that seems to have rolled under the desk.</t>
+  </si>
+  <si>
+    <t>end game, for now.</t>
+  </si>
+  <si>
+    <t>A small supply room, roughly 5x5' seems to be mostly cleaned out.  A medium sized carrying bag is hanging on the edge of the wall rack.</t>
+  </si>
+  <si>
+    <t>As you face another corridor expecting to see more carnage, you are surprised by the prestine state of the hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks cooridor.</t>
+  </si>
+  <si>
+    <t>A hovering autonomous military-grade defense unit.</t>
+  </si>
+  <si>
+    <t>Loot Type</t>
+  </si>
+  <si>
+    <t>The barracks of "Hernandez, G. - Chief Warrant Officer CWO5."</t>
+  </si>
+  <si>
+    <t>The broken and shattered remains of a military-grade defense drone.</t>
+  </si>
+  <si>
+    <t>You see one of two, medical wing bulkhead doors, lining the wall of a large corridor running east and west.  The length of the corridor seems astounding as you peer in both directions with no end in sight.  Many more bulkhead doors line both sides of the corridor in each direction.  Similar to the medical wing, the condition of this corridor is in ruins.</t>
+  </si>
+  <si>
+    <t>With the medical wing bulkhead doors on both sides of you, the wall reads "Odessy Medical Wing" in large stencil letters. Below the heading another group of lettering reads "&lt;- Mess Hall | Containment Wing -&gt;."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -814,10 +1137,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -831,8 +1160,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1111,7 +1453,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,14 +2373,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -2055,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -2063,19 +2406,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2085,19 +2445,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="67.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -2113,9 +2473,9 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2127,78 +2487,78 @@
     </row>
     <row r="2" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" t="s">
-        <v>165</v>
+        <v>195</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>39</v>
@@ -2209,121 +2569,121 @@
     </row>
     <row r="7" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>169</v>
+        <v>201</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10"/>
+        <v>200</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>172</v>
+        <v>199</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>39</v>
@@ -2334,194 +2694,861 @@
     </row>
     <row r="15" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>214</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="80" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>295</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>301</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D61" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2534,7 +3561,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2753,13 +3780,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -2884,22 +3911,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.83203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2921,28 +3948,34 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>342</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>345</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3000,10 +4033,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3093,7 +4126,21 @@
         <v>127</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3103,19 +4150,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,19 +4184,81 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
         <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3159,15 +4268,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
@@ -3235,13 +4344,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -3255,96 +4364,96 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3355,21 +4464,121 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
@@ -3380,15 +4589,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="4"/>
     <col min="3" max="3" width="58.1640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="146.83203125" style="4" customWidth="1"/>
@@ -3437,30 +4646,44 @@
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/res/world.xlsx
+++ b/res/world.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfarmer/Coding/com.despoina/res/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfarmer/Coding/com.europa/res/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="52120" yWindow="460" windowWidth="31820" windowHeight="23740" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="13280" yWindow="460" windowWidth="36780" windowHeight="20020" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="484">
   <si>
     <t>Name</t>
   </si>
@@ -127,9 +127,6 @@
     <t>IsBlocked</t>
   </si>
   <si>
-    <t>Art of Combat</t>
-  </si>
-  <si>
     <t>Readable</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Narrative</t>
   </si>
   <si>
-    <t>RepairVendor1</t>
-  </si>
-  <si>
     <t>Repair</t>
   </si>
   <si>
@@ -169,12 +163,6 @@
     <t>Platinum Boots</t>
   </si>
   <si>
-    <t>Platinum Gauntlets</t>
-  </si>
-  <si>
-    <t>Gauntlets</t>
-  </si>
-  <si>
     <t>Platinum chest plate armor</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>Steel Boots</t>
   </si>
   <si>
-    <t>Steel Gauntlets</t>
-  </si>
-  <si>
     <t>Steel Helmet</t>
   </si>
   <si>
@@ -247,9 +232,6 @@
     <t>Palladium Boots</t>
   </si>
   <si>
-    <t>Palladium Gauntlets</t>
-  </si>
-  <si>
     <t>Palladium Helmet</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t>Rhodium Boots</t>
   </si>
   <si>
-    <t>Rhodium Gauntlets</t>
-  </si>
-  <si>
     <t>Rhodium chest plate armor</t>
   </si>
   <si>
@@ -325,9 +304,6 @@
     <t>Titanium gravity boots</t>
   </si>
   <si>
-    <t>Titanium Gauntlets</t>
-  </si>
-  <si>
     <t>Titanium-infused flexible gloves</t>
   </si>
   <si>
@@ -361,9 +337,6 @@
     <t>Tungsten gravity boots</t>
   </si>
   <si>
-    <t>Tungsten Gauntlets</t>
-  </si>
-  <si>
     <t>Tungsten-infused flexible gloves</t>
   </si>
   <si>
@@ -406,9 +379,6 @@
     <t>A large health serum in a glass vial</t>
   </si>
   <si>
-    <t>An autonomous console for repairing items</t>
-  </si>
-  <si>
     <t>A digital book device with a glass screen.  The screen is somewhat cracked but the words are still legible.</t>
   </si>
   <si>
@@ -430,39 +400,12 @@
     <t>A merchant robot to buy and sell from</t>
   </si>
   <si>
-    <t>A flashlight to light the way</t>
-  </si>
-  <si>
-    <t>A long handled shovel for digging</t>
-  </si>
-  <si>
-    <t>A long utility cable, suitable for holding your weight</t>
-  </si>
-  <si>
-    <t>A small backpack for inventory, capacity of 8 items</t>
-  </si>
-  <si>
-    <t>A medium backpack for inventory, capacity of 15 items</t>
-  </si>
-  <si>
-    <t>A large backpack for inventory, capacity of 30 items</t>
-  </si>
-  <si>
-    <t>A small key card, suitable for opening many common locked items</t>
-  </si>
-  <si>
     <t>Blue Key Card</t>
   </si>
   <si>
-    <t>A small key card, suitable for opening rare locked items</t>
-  </si>
-  <si>
     <t>Silver Key Card</t>
   </si>
   <si>
-    <t>A small key card, suitable for opening extremely rare locked items</t>
-  </si>
-  <si>
     <t>Platinum Boots, Dagger, Small Health Serum, Medium Backpack, Red Key Card</t>
   </si>
   <si>
@@ -544,9 +487,6 @@
     <t>Container30</t>
   </si>
   <si>
-    <t>As you squeeze through a bulkhead door that is stuck halfway open, you emerge into an office room.  The room is in complete disarray with papers, books, and furniture thrown in all directions.  A small locked container rests on the only remaining intact shelf in the back corner of the room.</t>
-  </si>
-  <si>
     <t>Bloody hand streaks line the hallway walls trailing into a room at the end of the hall.  Another medical gurney is stationed in the middle of the bulkhead as if to attempt to baracade the doorway.</t>
   </si>
   <si>
@@ -604,9 +544,6 @@
     <t>Medical Supply Cart</t>
   </si>
   <si>
-    <t>A medical supply cart secured by key card access</t>
-  </si>
-  <si>
     <t>An overturned medical supply cart lies overturned on the ground.</t>
   </si>
   <si>
@@ -643,9 +580,6 @@
     <t>The bodies of 3 dead medical officers lie in the center of the room surrounded by overturned tables and gurneys.</t>
   </si>
   <si>
-    <t>This medical office is in disarray.</t>
-  </si>
-  <si>
     <t>The body of a dead doctor lies bloody against the wall on the floor.</t>
   </si>
   <si>
@@ -673,9 +607,6 @@
     <t>As you investage you find 3 dead medical officers in the center of room surrounded by a circle of overturned tables and medical gurneys serving as barriers.</t>
   </si>
   <si>
-    <t xml:space="preserve">With the medical wing bulkhead doors on both sides of you, the wall reads "Odessy Medical Wing" in large stencil letters. Below the heading another group of lettering reads "&lt;- Mess Hall | Containment Wing -&gt;."  Just then, a memory of this wall flashes in your mind.  You remember this hall, as it was before the horror, with ship members bustling and conversing. </t>
-  </si>
-  <si>
     <t>You continue to have fleeting reveries of this ship, and it's crew as you continue toward the mess hall.  You remember part of a conversation between the captain and you as you both walked this exact path before the mayhem.  The captain seemed worried, telling you not to insight a panic by exposing the information you just provided him to anyone else in the crew.  What was it that you told him?</t>
   </si>
   <si>
@@ -706,21 +637,12 @@
     <t>Chief Warrant Officer Benson's personal quarters.  It seems unscathed by whatever mayhem occurred everywhere else.</t>
   </si>
   <si>
-    <t>Another personal barracks, inhabited by "Stiles, R. - Master Chief Petty Officer."  Unfortunately, the chaos seems to have made it's way here, as the corpse of MCPO Stiles still lies in his blood covered bunk.  As you walk through, you kick a container with your foot.  Maybe there is something valuable inside.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Master Chief Petty Officer Stile's personal quarters.  He lies dead in his bunk.  The room in disarray. </t>
   </si>
   <si>
     <t>You awaken, dizzy and confused.  The room around you feels like it is spinning, and the lights are flickering uncontrollably making it almost impossible to see.   Where are you? You feel your head to find a severe wound that is bleeding.  What day is it?  You look down to notice you are wearing some sort of hospital gown and lying on a medical gurney.  Where are your clothes?  You must be in a medical room of some sort.  A flashlight lies on the ground close to the door shining against the wall.</t>
   </si>
   <si>
-    <t>In stencil lettering on the bulkhead door reads, "Adams, S. - Senior Chief Petty Officer."  This room appears to be uninhabited.  No personal documents or items of any kind, except for the standard barracks furniture; bunk, desk, computer terminal, and dresser shelf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Chief Petty Officer Adams' personal quarters.  </t>
-  </si>
-  <si>
     <t>L1MainCorridorNW5</t>
   </si>
   <si>
@@ -733,15 +655,9 @@
     <t>L1MessHall1</t>
   </si>
   <si>
-    <t>As you enter the mess hall, you see many overturned tables and chairs.</t>
-  </si>
-  <si>
     <t>A window on the port hull provides a view of the rest of the vessle.  It is a craft of magnificent size.  You can see there are several levels in many of the ship quadrants.  As you examine the structure of the ship, a frozen corpse floats through your view.  You begin to ask yourself how you will ever find a way off this place.</t>
   </si>
   <si>
-    <t>More stencil lettering on the wall in front of you displays, "&lt;- Armory | Mess Hall -&gt;."  Below it, a pool of blood ends the trail you have been following through the corridor.  Whatever left the blood is missing now.</t>
-  </si>
-  <si>
     <t>More stencil lettering on the wall in front of you displays, "&lt;- Armory | Mess Hall -&gt;."</t>
   </si>
   <si>
@@ -811,15 +727,6 @@
     <t>LC Vladneka's Personal Terminal</t>
   </si>
   <si>
-    <t>The personal terminal of Lieutenant Commander Vladneka</t>
-  </si>
-  <si>
-    <t>Vladneka Security Card</t>
-  </si>
-  <si>
-    <t>A key card belonging to Lieutenant Commander Vladneka</t>
-  </si>
-  <si>
     <t>A prestine corridor to the north and south with funtional lighting and no visible debris or signs of struggle.</t>
   </si>
   <si>
@@ -838,9 +745,6 @@
     <t>The personal barracks of, "Vladneka, V. - Lieutenant Commander."  The room is wellkept and in straight order.  The bunk is made and the desk is neatly organized.  You check the terminal for logs and find a recent email that is encrypted.  You'll need LC Vladneka's access card to read it.</t>
   </si>
   <si>
-    <t>Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade."  The bunk is made, the desk is organized, the terminal is shut down, the floor is clea… wait… there's something small barely visible under the bed.  It's LC Vladneka's access card.  It's the only thing out of place, and in Vladneka's subordinate's room...</t>
-  </si>
-  <si>
     <t>Container50</t>
   </si>
   <si>
@@ -883,12 +787,6 @@
     <t>The empty room of "Traes, W. - Lieutenant" with the same furniture and appearances as other barracks.</t>
   </si>
   <si>
-    <t>Lieutenant Traes Desk</t>
-  </si>
-  <si>
-    <t>The personal desk of Lieutenant Traes</t>
-  </si>
-  <si>
     <t>L1WestCorridorNW13</t>
   </si>
   <si>
@@ -934,9 +832,6 @@
     <t>L1WestCorridorNW22</t>
   </si>
   <si>
-    <t>L1WestCorridorNW23</t>
-  </si>
-  <si>
     <t>L1WestStorageRoom1</t>
   </si>
   <si>
@@ -976,9 +871,6 @@
     <t>Axe</t>
   </si>
   <si>
-    <t>A long handled axe, suitable for clearing debris and breaking weak walls</t>
-  </si>
-  <si>
     <t>Fixed to the wall is a fire safety station with an axe and water hose.  There is an empty space for a fire extinguisher, it must have been removed.</t>
   </si>
   <si>
@@ -991,12 +883,6 @@
     <t>Short Cable</t>
   </si>
   <si>
-    <t>A short utility cable, suitable for holding your weight but not useful for long distances</t>
-  </si>
-  <si>
-    <t>A mostly empty 5x5' supply room with wall mounted shelves and racks.</t>
-  </si>
-  <si>
     <t>Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barracade was designed to keep something, or someone, out.  But it didn't work.  While many of the bodies are completely intact, but very bloody, one of the bodies is missing a hand.  You roll the body over to see the badge reads, "Washington, D. - Rear Admiral."</t>
   </si>
   <si>
@@ -1015,9 +901,6 @@
     <t>Washington's Severed Hand</t>
   </si>
   <si>
-    <t>The severed left hand of Rear Admiral Washington</t>
-  </si>
-  <si>
     <t>Container100</t>
   </si>
   <si>
@@ -1030,15 +913,9 @@
     <t>Captain's Container</t>
   </si>
   <si>
-    <t>A small cylindrical container secured by key card access</t>
-  </si>
-  <si>
     <t>Captain's Key</t>
   </si>
   <si>
-    <t>A small, old fashioned silver key attached to a dog tag chain</t>
-  </si>
-  <si>
     <t>The quarters of Captain Holden, R.  The room is unusually structured and furnished</t>
   </si>
   <si>
@@ -1048,21 +925,9 @@
     <t>Footlocker</t>
   </si>
   <si>
-    <t>A personal effects footlocker at the base of the bunk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Moore, A. - Chief Warrant Officer CWO4."  This barracks has a footlocker, unlike any other barracks you've seen.  </t>
-  </si>
-  <si>
     <t>The barracks of "Tryniski, S. - Chief Warrant Officer CWO3."  A normal room, in slight dissarray, with a credit container that seems to have rolled under the desk.</t>
   </si>
   <si>
-    <t>end game, for now.</t>
-  </si>
-  <si>
-    <t>A small supply room, roughly 5x5' seems to be mostly cleaned out.  A medium sized carrying bag is hanging on the edge of the wall rack.</t>
-  </si>
-  <si>
     <t>As you face another corridor expecting to see more carnage, you are surprised by the prestine state of the hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks cooridor.</t>
   </si>
   <si>
@@ -1082,6 +947,551 @@
   </si>
   <si>
     <t>With the medical wing bulkhead doors on both sides of you, the wall reads "Odessy Medical Wing" in large stencil letters. Below the heading another group of lettering reads "&lt;- Mess Hall | Containment Wing -&gt;."</t>
+  </si>
+  <si>
+    <t>As you squeeze through a bulkhead door that is stuck halfway open, you emerge into an office room.  The room is in complete disarray with papers, books, and furniture thrown in all directions.  A small locked container rests on the only remaining intact shelf in the back corner of the room.  Maybe there is something in your inventory that can open the container...</t>
+  </si>
+  <si>
+    <t>This medical office is in disarray with papers, books, and furniture thrown in all directions.</t>
+  </si>
+  <si>
+    <t>Portable Keypad</t>
+  </si>
+  <si>
+    <t>A personal barracks, inhabited by "Stiles, R. - Master Chief Petty Officer."  Unfortunately, the chaos seems to have made it's way here, as the corpse of MCPO Stiles still lies in his blood covered bunk.  As you walk through, you kick a container with your foot.  Maybe there is something valuable inside.</t>
+  </si>
+  <si>
+    <t>You stand in the mess hall doorway, and see many overturned tables and chairs.</t>
+  </si>
+  <si>
+    <t>More stencil lettering on the wall in front of you displays, "(S) Armory | Mess Hall (N)."  Below it, a pool of blood ends the trail you have been following through the corridor.  Whatever left the blood is missing now.</t>
+  </si>
+  <si>
+    <t>Looking at the wall you see the stencil writing "(W) Barracks 100-105  |  Barracks 106-110 (E)".</t>
+  </si>
+  <si>
+    <t>Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade."  The bunk is made, the desk is organized, the terminal is shut down, the floor is clea… wait… there's something small and barely visible under the bed.  It's LC Vladneka's access card.  It's the only thing out of place, and in Vladneka's subordinate's room...</t>
+  </si>
+  <si>
+    <t>L1CrawlSpaceNW1</t>
+  </si>
+  <si>
+    <t>L1CrawlSpaceNW2</t>
+  </si>
+  <si>
+    <t>Toolbox</t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
+  </si>
+  <si>
+    <t>Ventilation Grate</t>
+  </si>
+  <si>
+    <t>A metal ventilation grate with phillips head screws blocking a ventilation shaft.</t>
+  </si>
+  <si>
+    <t>A detached metal ventilation grate with phillips head screws.</t>
+  </si>
+  <si>
+    <t>L1EastCorridorNE2</t>
+  </si>
+  <si>
+    <t>L1EastCorridorNE3</t>
+  </si>
+  <si>
+    <t>L1EastCorridorNE4</t>
+  </si>
+  <si>
+    <t>L1EastCorridorNE5</t>
+  </si>
+  <si>
+    <t>L1EastCorridorNE6</t>
+  </si>
+  <si>
+    <t>L1EastCorridorNE7</t>
+  </si>
+  <si>
+    <t>Broken Bulkhead Door</t>
+  </si>
+  <si>
+    <t>A locked and broken bulkhead door.  It can't be unlocked.</t>
+  </si>
+  <si>
+    <t>You enter a tight and narrow air duct shaft.  As you shine your light down the vent, it doesn't look very long.</t>
+  </si>
+  <si>
+    <t>You arrive at the end of the crawl space, you see light shining through an opening.</t>
+  </si>
+  <si>
+    <t>The other end of a ventilation crawl space.</t>
+  </si>
+  <si>
+    <t>You emerge from the ventilation shaft to see more stencil writing on the wall in front of you.  It reads, "Containment Wing (S)."  You must have found the containment wing… wasn't there something you read about the containment wing?</t>
+  </si>
+  <si>
+    <t>You see stencil writing on the wall reading, "Containment Wing (N)."</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingHall1</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingHall2</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingCell1</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingCell2</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingHall3</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingHall4</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingCell3</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingCell4</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingCell5</t>
+  </si>
+  <si>
+    <t>As you begin down the containment wing corridor you step in a sticky slime-like substance that seems to form a trail emminating from the furthest containment cell on the far end of the corridor.</t>
+  </si>
+  <si>
+    <t>You peer down another corridor with flickering lights and large claw marks gashed into the walls.  You can see open, bent, and broken glass and metal from a distance.</t>
+  </si>
+  <si>
+    <t>Large walls made of thick glass on both sides of the hall act as containment cell barriers, allowing the observer to see the subject behind safety glass.  Each cell wall is equipped with a strong metal door for cell access.</t>
+  </si>
+  <si>
+    <t>The cell is empty.  As you look around for clues you find a pillow on slab used as a bunk.  A pillow…? So, these are containment cells for humans?</t>
+  </si>
+  <si>
+    <t>The cell is empty.</t>
+  </si>
+  <si>
+    <t>L1ContainmentWingOffice1</t>
+  </si>
+  <si>
+    <t>Bulkhead Door C2</t>
+  </si>
+  <si>
+    <t>A locked bulkhead door.  This must be unlocked with a containment wing key card.</t>
+  </si>
+  <si>
+    <t>You enter the office of the containment wing official.  A television on the desk displays a consistent fuzz and the volume is extremely loud.  As you turn down the volume you notice a Blue Key Card on top.  This must be the containment wing key card.</t>
+  </si>
+  <si>
+    <t>The office of the containment wing official with a television displaying nothing but fuzz.</t>
+  </si>
+  <si>
+    <t>A dead containment wing official lies on the ground in the corner of the cell.  The official is wearing white medical scrubs with a rubber apron covering his front.  The rubber apron is bloody, but it doesn't look like his blood.</t>
+  </si>
+  <si>
+    <t>A bulkhead door divides the containment wing and separates 3 more containment cells for highly volatile subjects.</t>
+  </si>
+  <si>
+    <t>A locked bulkhead door with a small glass window.  Through the window you can see more containment cells.  Since these containment cells are behind another locked bulkhead door, you can only assume these are for the most volatile and violent subjects.</t>
+  </si>
+  <si>
+    <t>As you enter the containment wing annex, you see a tablet fixed to the wall.  Upon tapping the screen, observation entry notes are displayed.</t>
+  </si>
+  <si>
+    <t>Containment Wing PDA</t>
+  </si>
+  <si>
+    <t>Containment wing tablet storing observation notes of the volatile subjects.</t>
+  </si>
+  <si>
+    <t>Containment log entry 1310a.  Several of the containment officers have become violently ill, directly following Subject 22.30b's arrival on Sol 947.  While the Subject continues to remain unresponsive to interaction attempts, direct access to the Subject has been limited until a cause for the illnesses can be identified.
+Containment log entry 1323c.  Subject 22.30b spoke for the first time in 34 Sols.  The Subject spoke 2 words, "Captain Holden."  Additional attempts at dialog have been unsuccessful.
+Containment log entry 1334d.  Subject 22.30b appears to be undergoing physical changes in body characteristics.  The Subject's eye color and sclera (eye white's) are now entirely black, while the muscle phyique has improved dramatically.  The Subject's body mass is now 1.4 times the previous size and continues to grow, in muscle definition and height, daily.</t>
+  </si>
+  <si>
+    <t>A dead containment wing official lies on the ground in the corner of the cell.  The official is wearing white medical scrubs with a rubber apron covering his front.  The rubber apron is bloody, but it doesn't look like his blood.  He has something clutched in his hand.</t>
+  </si>
+  <si>
+    <t>Subject 22.30b's containment cell.  A heavily armed guard lies deceased on the ground.  His body looks to have been ripped in half at his torso.  What could possess the strength to do this to a man?!</t>
+  </si>
+  <si>
+    <t>This cell is empty.  It looks as though nothing ever occupied this cell.</t>
+  </si>
+  <si>
+    <t>Maintenance Key</t>
+  </si>
+  <si>
+    <t>Keypad</t>
+  </si>
+  <si>
+    <t>Bulkhead Door K2</t>
+  </si>
+  <si>
+    <t>A locked bulkhead door, which must be unlocked with a keycode.</t>
+  </si>
+  <si>
+    <t>An unlocked bulkhead door.  You used a keycode to open it.</t>
+  </si>
+  <si>
+    <t>Interaction Code</t>
+  </si>
+  <si>
+    <t>Gatling Turrent</t>
+  </si>
+  <si>
+    <t>A ceiling mounted proximity triggered gatling turrent.</t>
+  </si>
+  <si>
+    <t>Ventilation Grate, Footlocker</t>
+  </si>
+  <si>
+    <t>"Moore, A. - Chief Warrant Officer CWO4."  As you gaze around the room you find a footlocker at the end of the bunk and a ventilation grate that is slightly detached from the wall.  It would be a tight squeeze, but the vent looks barely large enough to fit through the ventilation .  You need to find a way to remove the ventilation grate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Moore, A. - Chief Warrant Officer CWO4."  This barracks has a footlocker at the base of the bunk and a ventilation shaft at the base of the wall, large enough to fit through.  </t>
+  </si>
+  <si>
+    <t>The southern sections of the containment wing corridor are scattered with bodies that have been torn apart by concentrated bullet fire.</t>
+  </si>
+  <si>
+    <t>A red light and warning siren begin to enimate as you proceed through the hallway.  A ceiling panel slides open to uncover a defensive gatling turrent which seems to be proximity activated.</t>
+  </si>
+  <si>
+    <t>The red light and warning siren continue to enimate through this corridor section.</t>
+  </si>
+  <si>
+    <t>A personal desk belonging to Lieutenant Traes.</t>
+  </si>
+  <si>
+    <t>A small cylindrical container secured by key card access.</t>
+  </si>
+  <si>
+    <t>A personal effects footlocker at the base of the bunk.</t>
+  </si>
+  <si>
+    <t>A maintenance worker's toolbox.</t>
+  </si>
+  <si>
+    <t>A personal terminal belonging to Lieutenant Commander Vladneka.</t>
+  </si>
+  <si>
+    <t>A medical supply cart secured by key card access.</t>
+  </si>
+  <si>
+    <t>A flashlight to light the way.</t>
+  </si>
+  <si>
+    <t>A long handled shovel for digging.</t>
+  </si>
+  <si>
+    <t>A short utility cable, suitable for holding your weight but not useful for long distances.</t>
+  </si>
+  <si>
+    <t>A long utility cable, suitable for holding your weight.</t>
+  </si>
+  <si>
+    <t>A small key card, suitable for opening many common locked items.</t>
+  </si>
+  <si>
+    <t>A small key card, suitable for opening rare locked items.</t>
+  </si>
+  <si>
+    <t>A small key card, suitable for opening extremely rare locked items.</t>
+  </si>
+  <si>
+    <t>A key card belonging to Lieutenant Commander Vladneka.</t>
+  </si>
+  <si>
+    <t>A long handled axe, suitable for clearing debris and breaking weak walls.</t>
+  </si>
+  <si>
+    <t>The severed left hand of Rear Admiral Washington.</t>
+  </si>
+  <si>
+    <t>A small, old fashioned silver key attached to a dog tag chain.</t>
+  </si>
+  <si>
+    <t>A portable keypad used to open doors which are locked by a keycode combination.</t>
+  </si>
+  <si>
+    <t>A phillips head screwdriver.</t>
+  </si>
+  <si>
+    <t>A small silver key to unlock padlocks.</t>
+  </si>
+  <si>
+    <t>A medium backpack for inventory, capacity of 12 items.</t>
+  </si>
+  <si>
+    <t>A large backpack for inventory, capacity of 25 items.</t>
+  </si>
+  <si>
+    <t>A small backpack for inventory, capacity of 6 items.</t>
+  </si>
+  <si>
+    <t>A destroyed ceiling mounted proximity triggered gatling turrent.</t>
+  </si>
+  <si>
+    <t>Severed Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the medical wing bulkhead doors on both sides of you, the wall reads "Europa VII Medical Wing" in large stencil letters. Below the heading another group of lettering reads "(W) Mess Hall | Containment Wing (E)."  Just then, a memory of this wall flashes in your mind.  You remember this hall, as it was before the horror, with ship members bustling and conversing. </t>
+  </si>
+  <si>
+    <t>In stencil lettering on the bulkhead door reads, "Adams, S. - Senior Chief Petty Officer."  This room appears to be uninhabited.  No personal documents or items of any kind, except for the standard barracks furniture; bunk, desk, computer terminal, and dresser shelf.  A locked maintenance worker's toolbox sits on the barracks desk.  You must find a key to open the padlock.</t>
+  </si>
+  <si>
+    <t>Senior Chief Petty Officer Adams' personal quarters.  A maintenance worker's toolbox sits on the barracks desk.</t>
+  </si>
+  <si>
+    <t>More flickering lights on the ceiling and floor runners continue to indicate power issues.  The stacked furniture and debris in front of you resemble a barracde.</t>
+  </si>
+  <si>
+    <t>A broken bulkhead door labeled "Europa VII Containment Wing", prevents you from continuing.  You must find another way around.</t>
+  </si>
+  <si>
+    <t>Vladneka's Security Card</t>
+  </si>
+  <si>
+    <t>Lieutenant Traes' Desk</t>
+  </si>
+  <si>
+    <t>L1WestCorridorMW1</t>
+  </si>
+  <si>
+    <t>You find a bulkhead door labeled, "Europa VII Armory" prevents you from continuing.  There is an empty location for a scanner on the wall.  This isn't a typical door requiring a key card like you have seen before.  It seems that you may need some portable utility to open the door.</t>
+  </si>
+  <si>
+    <t>You find a bulkhead door labeled, "Europa VII Armory" with a empty spot for a portable keypad.</t>
+  </si>
+  <si>
+    <t>The ceiling and flooring from the floor above you is laying in ruins on the ground making it impossible to pass.  There is a large hole in the ceiling, where something must have fallen through… or something larger could have jumped up, through the ceiling...</t>
+  </si>
+  <si>
+    <t>Ceiling Debris</t>
+  </si>
+  <si>
+    <t>A large pile of ceiling and flooring debris from the floor above.  You cannot move this.</t>
+  </si>
+  <si>
+    <t>Platinum Gloves</t>
+  </si>
+  <si>
+    <t>Steel Gloves</t>
+  </si>
+  <si>
+    <t>Palladium Gloves</t>
+  </si>
+  <si>
+    <t>Rhodium Gloves</t>
+  </si>
+  <si>
+    <t>Titanium Gloves</t>
+  </si>
+  <si>
+    <t>Tungsten Gloves</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>Maintenance Manual - Defense Drone Specs</t>
+  </si>
+  <si>
+    <t>A maintenance manual containing the assembly specifications of Defense Drones.</t>
+  </si>
+  <si>
+    <t>Loot</t>
+  </si>
+  <si>
+    <t>Medium Backpack, Maintenance Key, Maintenance Manual - Defense Drone Specs</t>
+  </si>
+  <si>
+    <t>The Defense Drone D-23 is a hovering autonomous military-grade defense unit.  Once activated, D-23's primary function is to assess situations within it's proximity, and take appropriate defensive actions if the situation is deemed hazardous.  The D-23 can only be reprogrammed while in stand-by mode, and by utilizing a D-23 Program Articulation Station.  The aft-most panel on the D-23 can be detached for quick maintenance, allowing a certified D-23 technician/engineer to service 80% of the D-23's functional components.</t>
+  </si>
+  <si>
+    <t>Evade</t>
+  </si>
+  <si>
+    <t>L1WestCorridorMW2</t>
+  </si>
+  <si>
+    <t>A small maintenance room, roughly 5x5' seems to be mostly cleaned out.  A medium sized carrying bag is hanging on the edge of the wall rack. And a small key on a silver chain is hanging on a hook on the wall.</t>
+  </si>
+  <si>
+    <t>A mostly empty 5x5' maintenance room with wall mounted shelves and racks.</t>
+  </si>
+  <si>
+    <t>The entry way to the Armory hold which has been guarded by a Defense Drone.</t>
+  </si>
+  <si>
+    <t>As you enter the Armory hold a hovering, autonomous Defense Drone activates.   The robotic words, "Unauthorized Access" are projected from it's speaker.  It's not going to let you pass.</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingHall1</t>
+  </si>
+  <si>
+    <t>Armory Key Card</t>
+  </si>
+  <si>
+    <t>Armory Cage</t>
+  </si>
+  <si>
+    <t>A locked wire cage door, restricting access to the Armory hold.  Use an Armory key card to unlock this cage.</t>
+  </si>
+  <si>
+    <t>Armory Key Card, Axe</t>
+  </si>
+  <si>
+    <t>A small key card, suitable for opening the Armory hold.</t>
+  </si>
+  <si>
+    <t>An unlocked, and opened, wire cage door.</t>
+  </si>
+  <si>
+    <t>You encounter a metal cage securing the Armory hold.  A cage with a locked gate fills the hallway and prevents you from entering.  You must find a way to open the cage.</t>
+  </si>
+  <si>
+    <t>The entry way to the Armory hold which as been secured by a metal cage.</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingHall2</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingHall3</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingHall4</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingHall5</t>
+  </si>
+  <si>
+    <t>More empty shelves line the hallway.  A booklet is slightly wedged under the frontside of the shelving unit.</t>
+  </si>
+  <si>
+    <t>More empty shelves line the hallway.</t>
+  </si>
+  <si>
+    <t>Armed Combat - Training Guide</t>
+  </si>
+  <si>
+    <t>Palladium Helmet, Palladium Gloves, Portable Keypad</t>
+  </si>
+  <si>
+    <t>The Armory appears to be mostly cleared out.  While the state is not in complete disarray, it is evident that the crew made a quick sweep through this area and gathered what they could.  A few items are left on the shelves that line the hallway, and you can see 3 locked storage rooms, which branch off from the short corridor.</t>
+  </si>
+  <si>
+    <t>The Armory appears to be mostly cleared out.  While the state is not in complete disarray, it is evident that the crew made a quick sweep through this area and gathered what they could.  You can see 3 locked storage rooms, which branch off from the short corridor.</t>
+  </si>
+  <si>
+    <t>Flickering lights shine intermittently on the shelving units lining the corridor.</t>
+  </si>
+  <si>
+    <t>Platinum Leggings, Platinum Chest Plate</t>
+  </si>
+  <si>
+    <t>A flickering shelf light shines intermittently on sections of body armor.  They looks to be your size.</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingStorage1</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingStorage2</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingStorage3</t>
+  </si>
+  <si>
+    <t>A solid locked Storage Room door.  This must be unlocked with a key card.</t>
+  </si>
+  <si>
+    <t>An unlocked Storage Room door.  You used a key card to open it.</t>
+  </si>
+  <si>
+    <t>A locked Armory Storage Door labeled "Armory Storage I", prevents you from entering the storage room.  Expecting to find items that can aide in your escape, you desperately need to discover a way to open this door.</t>
+  </si>
+  <si>
+    <t>A locked Armory Storage Door labeled "Armory Storage II", prevents you from entering the storage room.  Expecting to find items that can aide in your escape, you desperately need to discover a way to open this door.</t>
+  </si>
+  <si>
+    <t>A locked Armory Storage Door labeled "Armory Storage III", prevents you from entering the storage room.  Expecting to find items that can aide in your escape, you desperately need to discover a way to open this door.</t>
+  </si>
+  <si>
+    <t>An Armory Storage Door labeled "Armory Storage III", which has been preventing access to one of the armory storage rooms.</t>
+  </si>
+  <si>
+    <t>An Armory Storage Door labeled "Armory Storage II", which has been preventing access to one of the armory storage rooms.</t>
+  </si>
+  <si>
+    <t>An Armory Storage Door labeled "Armory Storage I", which has been preventing access to one of the armory storage rooms.</t>
+  </si>
+  <si>
+    <t>Armory Storage Door I</t>
+  </si>
+  <si>
+    <t>Armory Storage Door II</t>
+  </si>
+  <si>
+    <t>Armory Storage Door III</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingStorage1a</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingStorage2a</t>
+  </si>
+  <si>
+    <t>L1ArmoryWingStorage3a</t>
+  </si>
+  <si>
+    <t>L1ShippingWingOffice1</t>
+  </si>
+  <si>
+    <t>This is where the player needs to discover the combination to the Armory military grade boxes that contain special items.</t>
+  </si>
+  <si>
+    <t>Armory Container - WS1</t>
+  </si>
+  <si>
+    <t>Armory Container - SP2a</t>
+  </si>
+  <si>
+    <t>Armory Container - RR2</t>
+  </si>
+  <si>
+    <t>A military grade shipping container.  Too large to carry. Secured by portable keypad combination.</t>
+  </si>
+  <si>
+    <t>Armory Container - WS1, Armory Container - SP2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enter the Storage Room to find several tall shelves lining the walls.  Two of the shelves have green military grade shipping containers.  The containers are too large and heavy to carry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enter the Storage Room to find several tall shelves lining the walls.  Two of the shelves have green military grade shipping containers.  The containers are too large and heavy to carry, and seem to be locked by a portable keypad combination.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enter the Storage Room to find several tall shelves lining the walls.  One of the shelves has a green military grade shipping container.  The container is too large and heavy to carry, and seem to be locked by a portable keypad combination.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enter the Storage Room to find several tall shelves lining the walls.  One of the shelves has a green military grade shipping container.  The container is too large and heavy to carry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enter the Storage Room to find a weapon and armor repair station.  There is a plaque on the wall next to the repair station, it reads: "This repair station requires credits to operate, and only repairs weapons/armor found in it's database (denoted by item level)."  </t>
+  </si>
+  <si>
+    <t>RepairVendorRoom</t>
+  </si>
+  <si>
+    <t>An autonomous console for repairing items.  Grade 2, and below, items only.</t>
+  </si>
+  <si>
+    <t>Military S2A Repair Station</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1145,8 +1555,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1161,20 +1581,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1453,7 +1888,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,13 +1924,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -1512,13 +1947,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -1535,13 +1970,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1558,13 +1993,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -1581,13 +2016,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -1604,13 +2039,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -1627,13 +2062,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -1650,13 +2085,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -1673,13 +2108,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>413</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <v>20</v>
@@ -1696,13 +2131,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>20</v>
@@ -1719,13 +2154,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>20</v>
@@ -1742,13 +2177,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -1765,13 +2200,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
@@ -1788,13 +2223,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1">
         <v>40</v>
@@ -1811,13 +2246,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -1834,13 +2269,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -1857,13 +2292,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="1">
         <v>40</v>
@@ -1880,13 +2315,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1">
         <v>40</v>
@@ -1903,13 +2338,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1">
         <v>80</v>
@@ -1926,13 +2361,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1">
         <v>80</v>
@@ -1949,13 +2384,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D22" s="1">
         <v>80</v>
@@ -1972,13 +2407,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1">
         <v>80</v>
@@ -1995,13 +2430,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1">
         <v>80</v>
@@ -2018,13 +2453,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1">
         <v>80</v>
@@ -2041,13 +2476,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1">
         <v>160</v>
@@ -2064,13 +2499,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D27" s="1">
         <v>160</v>
@@ -2087,13 +2522,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1">
         <v>160</v>
@@ -2110,13 +2545,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1">
         <v>160</v>
@@ -2133,13 +2568,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1">
         <v>160</v>
@@ -2156,13 +2591,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
         <v>160</v>
@@ -2179,13 +2614,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D32" s="1">
         <v>320</v>
@@ -2202,13 +2637,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
         <v>320</v>
@@ -2225,13 +2660,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1">
         <v>320</v>
@@ -2248,13 +2683,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D35" s="1">
         <v>320</v>
@@ -2271,13 +2706,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1">
         <v>320</v>
@@ -2294,13 +2729,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1">
         <v>320</v>
@@ -2328,12 +2763,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2354,13 +2789,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>482</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2373,21 +2808,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="66.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2398,44 +2834,197 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="E3" t="s">
-        <v>311</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7">
+        <v>22492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>455</v>
+      </c>
+      <c r="D11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -2445,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2457,8 +3046,8 @@
     <col min="2" max="2" width="11.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="67.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="64.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -2473,9 +3062,9 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2487,206 +3076,206 @@
     </row>
     <row r="2" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>182</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>180</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>304</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="b">
         <v>1</v>
@@ -2694,299 +3283,302 @@
     </row>
     <row r="15" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>225</v>
+        <v>400</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>226</v>
+        <v>401</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>311</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2997,18 +3589,18 @@
     </row>
     <row r="35" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E35" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3019,19 +3611,19 @@
     </row>
     <row r="36" spans="1:12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3043,18 +3635,18 @@
     </row>
     <row r="37" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -3065,18 +3657,18 @@
     </row>
     <row r="38" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -3087,19 +3679,19 @@
     </row>
     <row r="39" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3111,18 +3703,18 @@
     </row>
     <row r="40" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3133,19 +3725,19 @@
     </row>
     <row r="41" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3157,18 +3749,18 @@
     </row>
     <row r="42" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>252</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -3179,18 +3771,18 @@
     </row>
     <row r="43" spans="1:12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -3201,18 +3793,18 @@
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -3223,18 +3815,18 @@
     </row>
     <row r="45" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -3245,18 +3837,18 @@
     </row>
     <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3267,22 +3859,22 @@
     </row>
     <row r="47" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>308</v>
+        <v>402</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>273</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="G47" s="2" t="b">
         <v>1</v>
@@ -3295,18 +3887,18 @@
     </row>
     <row r="48" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -3317,18 +3909,18 @@
     </row>
     <row r="49" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>288</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -3339,18 +3931,18 @@
     </row>
     <row r="50" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -3361,18 +3953,18 @@
     </row>
     <row r="51" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -3381,21 +3973,21 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>340</v>
+        <v>426</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>23</v>
+        <v>427</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3407,19 +3999,19 @@
     </row>
     <row r="53" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>329</v>
+        <v>292</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3431,19 +4023,19 @@
     </row>
     <row r="54" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>324</v>
+        <v>285</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3453,24 +4045,28 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -3479,19 +4075,19 @@
     </row>
     <row r="56" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>326</v>
+        <v>295</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3503,19 +4099,19 @@
     </row>
     <row r="57" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E57" t="s">
-        <v>159</v>
+        <v>299</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3525,30 +4121,549 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>298</v>
+    <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>333</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>334</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F67" t="s">
+        <v>120</v>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D61" s="6"/>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A75" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G75" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A81" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E84" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G87" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E88" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>470</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3561,7 +4676,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3596,13 +4711,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -3619,13 +4734,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3642,13 +4757,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -3665,13 +4780,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -3688,13 +4803,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -3711,13 +4826,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D7">
         <v>70</v>
@@ -3734,13 +4849,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -3757,13 +4872,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>120</v>
@@ -3780,13 +4895,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -3814,7 +4929,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3846,13 +4961,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3866,13 +4981,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -3886,13 +5001,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -3911,10 +5026,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3949,32 +5064,58 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4020,10 +5161,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4066,64 +5207,64 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>75</v>
@@ -4131,13 +5272,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -4150,22 +5291,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4181,84 +5322,164 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>281</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8">
+        <v>32429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9">
+        <v>32429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10">
+        <v>32429</v>
       </c>
     </row>
   </sheetData>
@@ -4268,17 +5489,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4304,13 +5525,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>380</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4330,7 +5551,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>381</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4344,13 +5565,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>317</v>
+        <v>382</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -4364,13 +5585,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -4390,7 +5611,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>396</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -4399,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,7 +5631,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>394</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -4419,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4430,7 +5651,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>395</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -4439,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>384</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -4464,13 +5685,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>385</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -4484,13 +5705,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>386</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -4504,13 +5725,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4524,13 +5745,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -4542,15 +5763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4564,13 +5785,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4579,6 +5800,86 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>0</v>
       </c>
     </row>
@@ -4589,10 +5890,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4615,30 +5916,30 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4">
         <v>7</v>
@@ -4646,45 +5947,88 @@
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/world.xlsx
+++ b/res/world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13280" yWindow="460" windowWidth="36780" windowHeight="20020" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -3036,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4654,6 +4654,9 @@
         <v>483</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+    </row>
     <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>469</v>
@@ -4675,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/res/world.xlsx
+++ b/res/world.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18640" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Armor" sheetId="1" r:id="rId1"/>
@@ -463,9 +463,6 @@
     <t>Defense Drone</t>
   </si>
   <si>
-    <t>You exit the medical bay through an automated steel door that slides open when you approach.  As you enter the adjacent hall it becomes more evident that something horrible happened here.  Looking down the hall in each direction you see broken class, debri, rubble.... and blood?  What happened here?!</t>
-  </si>
-  <si>
     <t>Visited Message</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t>Container30</t>
   </si>
   <si>
-    <t>Bloody hand streaks line the hallway walls trailing into a room at the end of the hall.  Another medical gurney is stationed in the middle of the bulkhead as if to attempt to baracade the doorway.</t>
-  </si>
-  <si>
     <t>Medical Subject 22.30b</t>
   </si>
   <si>
@@ -604,12 +598,6 @@
     <t>A large and sharp kitchen knife</t>
   </si>
   <si>
-    <t>As you investage you find 3 dead medical officers in the center of room surrounded by a circle of overturned tables and medical gurneys serving as barriers.</t>
-  </si>
-  <si>
-    <t>You continue to have fleeting reveries of this ship, and it's crew as you continue toward the mess hall.  You remember part of a conversation between the captain and you as you both walked this exact path before the mayhem.  The captain seemed worried, telling you not to insight a panic by exposing the information you just provided him to anyone else in the crew.  What was it that you told him?</t>
-  </si>
-  <si>
     <t>L1MainCorridorNW3</t>
   </si>
   <si>
@@ -646,18 +634,12 @@
     <t>L1MainCorridorNW5</t>
   </si>
   <si>
-    <t>A window on the port hull provides a view of the rest of the vessle.  It is a craft of magnificent size.  You can see there are several levels in many of the ship quadrants.</t>
-  </si>
-  <si>
     <t>L1MainCorridorNW6</t>
   </si>
   <si>
     <t>L1MessHall1</t>
   </si>
   <si>
-    <t>A window on the port hull provides a view of the rest of the vessle.  It is a craft of magnificent size.  You can see there are several levels in many of the ship quadrants.  As you examine the structure of the ship, a frozen corpse floats through your view.  You begin to ask yourself how you will ever find a way off this place.</t>
-  </si>
-  <si>
     <t>More stencil lettering on the wall in front of you displays, "&lt;- Armory | Mess Hall -&gt;."</t>
   </si>
   <si>
@@ -691,9 +673,6 @@
     <t>L1WestCorridorNW7</t>
   </si>
   <si>
-    <t>As you turn to face another corridor expecting to see more carnage, you are surprised by the prestine state of hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks cooridor.</t>
-  </si>
-  <si>
     <t>L1WestCorridorNW8</t>
   </si>
   <si>
@@ -703,9 +682,6 @@
     <t xml:space="preserve">As you continue down this corridor, the starboard wall is entirely made of a glass-like material, making a transparent, wall-sized window to view the endless expanse of space.  Nebulas, star clusters, and distant planetary systems can be easily admired.  There is a calming sensation that arrives from the tranquility of the view, and for a moment, you forget your circumstance and escape in mind into the great void beyond. </t>
   </si>
   <si>
-    <t>With the glass wall on the starboard, the port side contains additional barracks quarters and offices.  Maybe there will find something useful.</t>
-  </si>
-  <si>
     <t>L1BarracksNW4</t>
   </si>
   <si>
@@ -721,15 +697,9 @@
     <t>L1WestCorridorNW10</t>
   </si>
   <si>
-    <t>The wellkept barracks of "Vladneka, V. - Lieutenant Commander."  A personal terminal with an encrypted email is waiting to be read.</t>
-  </si>
-  <si>
     <t>LC Vladneka's Personal Terminal</t>
   </si>
   <si>
-    <t>A prestine corridor to the north and south with funtional lighting and no visible debris or signs of struggle.</t>
-  </si>
-  <si>
     <t>L1WestCorridorNW11</t>
   </si>
   <si>
@@ -742,9 +712,6 @@
     <t xml:space="preserve">Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade." </t>
   </si>
   <si>
-    <t>The personal barracks of, "Vladneka, V. - Lieutenant Commander."  The room is wellkept and in straight order.  The bunk is made and the desk is neatly organized.  You check the terminal for logs and find a recent email that is encrypted.  You'll need LC Vladneka's access card to read it.</t>
-  </si>
-  <si>
     <t>Container50</t>
   </si>
   <si>
@@ -790,9 +757,6 @@
     <t>L1WestCorridorNW13</t>
   </si>
   <si>
-    <t>You continue to have fleeting reveries of this ship, and it's crew as you continue toward the mess hall.  You remember a portion of a conversation between the captain and you as you both walked this exact path before the mayhem.  The captain seemed worried, telling you not to insight a panic by exposing the information you just provided him to anyone else in the crew.  What was it that you told him?</t>
-  </si>
-  <si>
     <t>Nearing the end of the barracks corridor, you recall another short memory of a conversation you overheard the captain having around the upcoming corner.  "…yes, he knows.  He told me about his concerns during his last rotation.  I told him not to mention it to anyone, but I don't know how long he will keep quiet.  We are going to have to do something about him quickly."</t>
   </si>
   <si>
@@ -877,18 +841,9 @@
     <t>A fire safety station is fixed to the wall.  There is a firmly attached fire hose and an empty space for a fire extinguisher.</t>
   </si>
   <si>
-    <t>More flickering lights on the ceiling and floor runners continue to indicate power issues.  A barracade of stacked furniture and debris blocks the corridor. You must find something to clear the debris.</t>
-  </si>
-  <si>
     <t>Short Cable</t>
   </si>
   <si>
-    <t>Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barracade was designed to keep something, or someone, out.  But it didn't work.  While many of the bodies are completely intact, but very bloody, one of the bodies is missing a hand.  You roll the body over to see the badge reads, "Washington, D. - Rear Admiral."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barracade was designed to keep something, or someone, out.  But it didn't work. </t>
-  </si>
-  <si>
     <t>EnemyRoom</t>
   </si>
   <si>
@@ -907,9 +862,6 @@
     <t>Additional dead bodies of various crew members lay in odd, mangled, positions on the floor.</t>
   </si>
   <si>
-    <t>Ahead is the quarters of Captain Holden, R.  Unsure what evidence you are expecting to find inside, you cautiously enter.  The room is unusually structured and furnished; however, aside from appearances, you find a single canaster placed on top of a cleaned desk.  The canaster requires an executive officer's key card to access the contents.  But what could be inside?  This canaster is obviously significant, and may reveal the story of the secret the Captain was keeping.</t>
-  </si>
-  <si>
     <t>Captain's Container</t>
   </si>
   <si>
@@ -919,18 +871,9 @@
     <t>The quarters of Captain Holden, R.  The room is unusually structured and furnished</t>
   </si>
   <si>
-    <t>The door label reads, "Hernandez, G. - Chief Warrant Offier CWO5."  You enter the quarters to find a hovering defense drone with red lights.  It turns to the door and trains it's sights and barrels on you.</t>
-  </si>
-  <si>
     <t>Footlocker</t>
   </si>
   <si>
-    <t>The barracks of "Tryniski, S. - Chief Warrant Officer CWO3."  A normal room, in slight dissarray, with a credit container that seems to have rolled under the desk.</t>
-  </si>
-  <si>
-    <t>As you face another corridor expecting to see more carnage, you are surprised by the prestine state of the hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks cooridor.</t>
-  </si>
-  <si>
     <t>A hovering autonomous military-grade defense unit.</t>
   </si>
   <si>
@@ -958,9 +901,6 @@
     <t>Portable Keypad</t>
   </si>
   <si>
-    <t>A personal barracks, inhabited by "Stiles, R. - Master Chief Petty Officer."  Unfortunately, the chaos seems to have made it's way here, as the corpse of MCPO Stiles still lies in his blood covered bunk.  As you walk through, you kick a container with your foot.  Maybe there is something valuable inside.</t>
-  </si>
-  <si>
     <t>You stand in the mess hall doorway, and see many overturned tables and chairs.</t>
   </si>
   <si>
@@ -970,9 +910,6 @@
     <t>Looking at the wall you see the stencil writing "(W) Barracks 100-105  |  Barracks 106-110 (E)".</t>
   </si>
   <si>
-    <t>Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade."  The bunk is made, the desk is organized, the terminal is shut down, the floor is clea… wait… there's something small and barely visible under the bed.  It's LC Vladneka's access card.  It's the only thing out of place, and in Vladneka's subordinate's room...</t>
-  </si>
-  <si>
     <t>L1CrawlSpaceNW1</t>
   </si>
   <si>
@@ -1058,9 +995,6 @@
   </si>
   <si>
     <t>L1ContainmentWingCell5</t>
-  </si>
-  <si>
-    <t>As you begin down the containment wing corridor you step in a sticky slime-like substance that seems to form a trail emminating from the furthest containment cell on the far end of the corridor.</t>
   </si>
   <si>
     <t>You peer down another corridor with flickering lights and large claw marks gashed into the walls.  You can see open, bent, and broken glass and metal from a distance.</t>
@@ -1158,12 +1092,6 @@
     <t>The southern sections of the containment wing corridor are scattered with bodies that have been torn apart by concentrated bullet fire.</t>
   </si>
   <si>
-    <t>A red light and warning siren begin to enimate as you proceed through the hallway.  A ceiling panel slides open to uncover a defensive gatling turrent which seems to be proximity activated.</t>
-  </si>
-  <si>
-    <t>The red light and warning siren continue to enimate through this corridor section.</t>
-  </si>
-  <si>
     <t>A personal desk belonging to Lieutenant Traes.</t>
   </si>
   <si>
@@ -1329,9 +1257,6 @@
     <t>The entry way to the Armory hold which has been guarded by a Defense Drone.</t>
   </si>
   <si>
-    <t>As you enter the Armory hold a hovering, autonomous Defense Drone activates.   The robotic words, "Unauthorized Access" are projected from it's speaker.  It's not going to let you pass.</t>
-  </si>
-  <si>
     <t>L1ArmoryWingHall1</t>
   </si>
   <si>
@@ -1371,9 +1296,6 @@
     <t>L1ArmoryWingHall5</t>
   </si>
   <si>
-    <t>More empty shelves line the hallway.  A booklet is slightly wedged under the frontside of the shelving unit.</t>
-  </si>
-  <si>
     <t>More empty shelves line the hallway.</t>
   </si>
   <si>
@@ -1482,9 +1404,6 @@
     <t xml:space="preserve">You enter the Storage Room to find several tall shelves lining the walls.  One of the shelves has a green military grade shipping container.  The container is too large and heavy to carry. </t>
   </si>
   <si>
-    <t xml:space="preserve">You enter the Storage Room to find a weapon and armor repair station.  There is a plaque on the wall next to the repair station, it reads: "This repair station requires credits to operate, and only repairs weapons/armor found in it's database (denoted by item level)."  </t>
-  </si>
-  <si>
     <t>RepairVendorRoom</t>
   </si>
   <si>
@@ -1492,6 +1411,87 @@
   </si>
   <si>
     <t>Military S2A Repair Station</t>
+  </si>
+  <si>
+    <t>You exit the medical bay through an automated steel door that slides open when you approach.  As you enter the adjacent hall it becomes more evident that something horrible happened here.  Looking down the hall in each direction you see broken class, debris, rubble.... and blood?  What happened here?!</t>
+  </si>
+  <si>
+    <t>Bloody hand streaks line the hallway walls trailing into a room at the end of the hall.  Another medical gurney is stationed in the middle of the bulkhead as if to attempt to barricade the doorway.</t>
+  </si>
+  <si>
+    <t>As you investigate you find 3 dead medical officers in the center of room surrounded by a circle of overturned tables and medical gurneys serving as barriers.</t>
+  </si>
+  <si>
+    <t>A window on the port hull provides a view of the rest of the vessel.  It is a craft of magnificent size.  You can see there are several levels in many of the ship quadrants.  As you examine the structure of the ship, a frozen corpse floats through your view.  You begin to ask yourself how you will ever find a way off this place.</t>
+  </si>
+  <si>
+    <t>As you face another corridor expecting to see more carnage, you are surprised by the pristine state of the hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks corridor.</t>
+  </si>
+  <si>
+    <t>The personal barracks of, "Vladneka, V. - Lieutenant Commander."  The room is well-kept and in straight order.  The bunk is made and the desk is neatly organized.  You check the terminal for logs and find a recent email that is encrypted.  You'll need LC Vladneka's access card to read it.</t>
+  </si>
+  <si>
+    <t>A pristine corridor to the north and south with functional lighting and no visible debris or signs of struggle.</t>
+  </si>
+  <si>
+    <t>Another clean and orderly barracks belonging to, "Mariska, S. - Lieutenant Junior Grade."  The bunk is made, the desk is organized, the terminal is shut down, the floor is clear… wait… there's something small and barely visible under the bed.  It's LC Vladneka's access card.  It's the only thing out of place, and in Vladneka's subordinate's room...</t>
+  </si>
+  <si>
+    <t>More flickering lights on the ceiling and floor runners continue to indicate power issues.  A barricade of stacked furniture and debris blocks the corridor. You must find something to clear the debris.</t>
+  </si>
+  <si>
+    <t>Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barricade was designed to keep something, or someone, out.  But it didn't work.  While many of the bodies are completely intact, but very bloody, one of the bodies is missing a hand.  You roll the body over to see the badge reads, "Washington, D. - Rear Admiral."</t>
+  </si>
+  <si>
+    <t>Ahead is the quarters of Captain Holden, R.  Unsure what evidence you are expecting to find inside, you cautiously enter.  The room is unusually structured and furnished; however, aside from appearances, you find a single canister placed on top of a cleaned desk.  The canister requires an executive officer's key card to access the contents.  But what could be inside?  This canister is obviously significant, and may reveal the story of the secret the Captain was keeping.</t>
+  </si>
+  <si>
+    <t>The barracks of "Tryniski, S. - Chief Warrant Officer CWO3."  A normal room, in slight disarray, with a credit container that seems to have rolled under the desk.</t>
+  </si>
+  <si>
+    <t>As you begin down the containment wing corridor you step in a sticky slime-like substance that seems to form a trail emanating from the furthest containment cell on the far end of the corridor.</t>
+  </si>
+  <si>
+    <t>A red light and warning siren begin to emanate as you proceed through the hallway.  A ceiling panel slides open to uncover a defensive gatling turret which seems to be proximity activated.</t>
+  </si>
+  <si>
+    <t>More empty shelves line the hallway.  A booklet is slightly wedged under the front side of the shelving unit.</t>
+  </si>
+  <si>
+    <t>You continue to have fleeting reveries of this ship, and its crew as you continue toward the mess hall.  You remember a portion of a conversation between the captain and you as you both walked this exact path before the mayhem.  The captain seemed worried, telling you not to insight a panic by exposing the information you just provided him to anyone else in the crew.  What was it that you told him?</t>
+  </si>
+  <si>
+    <t>A personal barracks, inhabited by "Stiles, R. - Master Chief Petty Officer."  Unfortunately, the chaos seems to have made its way here, as the corpse of MCPO Stiles still lies in his blood covered bunk.  As you walk through, you kick a container with your foot.  Maybe there is something valuable inside.</t>
+  </si>
+  <si>
+    <t>The door label reads, "Hernandez, G. - Chief Warrant Officer CWO5."  You enter the quarters to find a hovering defense drone with red lights.  It turns to the door and trains its sights and barrels on you.</t>
+  </si>
+  <si>
+    <t>As you enter the Armory hold a hovering, autonomous Defense Drone activates.   The robotic words, "Unauthorized Access" are projected from its speaker.  It's not going to let you pass.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You enter the Storage Room to find a weapon and armor repair station.  There is a plaque on the wall next to the repair station, it reads: "This repair station requires credits to operate, and only repairs weapons/armor found in its database (denoted by item level)."  </t>
+  </si>
+  <si>
+    <t>You continue to have fleeting reveries of this ship, and its crew as you continue toward the mess hall.  You remember part of a conversation between the captain and you as you both walked this exact path before the mayhem.  The captain seemed worried, telling you not to insight a panic by exposing the information you just provided him to anyone else in the crew.  What was it that you told him?</t>
+  </si>
+  <si>
+    <t>A window on the port hull provides a view of the rest of the vessel.  It is a craft of magnificent size.  You can see there are several levels in many of the ship quadrants.</t>
+  </si>
+  <si>
+    <t>As you turn to face another corridor expecting to see more carnage, you are surprised by the pristine state of hallway ahead.  As if nothing has happened here, this sector's power seems unaffected, while no bodies, nor blood trails can be seen.  Very interesting that this entire area has been passed-over by whatever horror devastated the Medical Wing and Officer's Barracks corridor.</t>
+  </si>
+  <si>
+    <t>The well-kept barracks of "Vladneka, V. - Lieutenant Commander."  A personal terminal with an encrypted email is waiting to be read.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several dead bodies lay scattered on the ground and leaning against the walls.  It appears the barricade was designed to keep something, or someone, out.  But it didn't work. </t>
+  </si>
+  <si>
+    <t>The red light and warning siren continue to emanate through this corridor section.</t>
+  </si>
+  <si>
+    <t>With the glass wall on the starboard, the port side contains additional barracks quarters and offices.  Maybe there will be something useful.</t>
   </si>
 </sst>
 </file>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>58</v>
@@ -2246,10 +2246,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>69</v>
@@ -2384,10 +2384,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>77</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>88</v>
@@ -2660,10 +2660,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>99</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2834,27 +2834,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -2862,64 +2862,64 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
         <v>120</v>
@@ -2927,19 +2927,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="D7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F7">
         <v>22492</v>
@@ -2947,84 +2947,84 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3036,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:D89"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3062,7 +3062,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -3076,16 +3076,16 @@
     </row>
     <row r="2" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>114</v>
@@ -3093,41 +3093,41 @@
     </row>
     <row r="3" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>457</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>37</v>
@@ -3135,19 +3135,19 @@
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>37</v>
@@ -3158,121 +3158,121 @@
     </row>
     <row r="7" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>37</v>
@@ -3283,252 +3283,252 @@
     </row>
     <row r="15" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>250</v>
+        <v>472</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>189</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>306</v>
+        <v>473</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>205</v>
+        <v>460</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>202</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>40</v>
@@ -3536,47 +3536,47 @@
     </row>
     <row r="32" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>296</v>
+        <v>461</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>217</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3589,16 +3589,16 @@
     </row>
     <row r="35" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>483</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>221</v>
+        <v>483</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
@@ -3611,19 +3611,19 @@
     </row>
     <row r="36" spans="1:12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>234</v>
+        <v>462</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>227</v>
+        <v>480</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3635,16 +3635,16 @@
     </row>
     <row r="37" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="38" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3679,19 +3679,19 @@
     </row>
     <row r="39" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3703,16 +3703,16 @@
     </row>
     <row r="40" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>229</v>
+        <v>463</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3725,19 +3725,19 @@
     </row>
     <row r="41" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3749,16 +3749,16 @@
     </row>
     <row r="42" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3771,16 +3771,16 @@
     </row>
     <row r="43" spans="1:12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3793,16 +3793,16 @@
     </row>
     <row r="44" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3815,16 +3815,16 @@
     </row>
     <row r="45" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3837,16 +3837,16 @@
     </row>
     <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3859,22 +3859,22 @@
     </row>
     <row r="47" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>279</v>
+        <v>465</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G47" s="2" t="b">
         <v>1</v>
@@ -3887,16 +3887,16 @@
     </row>
     <row r="48" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>281</v>
+        <v>466</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>282</v>
+        <v>481</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3909,16 +3909,16 @@
     </row>
     <row r="49" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3931,16 +3931,16 @@
     </row>
     <row r="50" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3953,16 +3953,16 @@
     </row>
     <row r="51" spans="1:12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -3975,19 +3975,19 @@
     </row>
     <row r="52" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3999,19 +3999,19 @@
     </row>
     <row r="53" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>289</v>
+        <v>467</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4023,19 +4023,19 @@
     </row>
     <row r="54" spans="1:12" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4047,22 +4047,22 @@
     </row>
     <row r="55" spans="1:12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="G55" s="2" t="b">
         <v>1</v>
@@ -4075,19 +4075,19 @@
     </row>
     <row r="56" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>295</v>
+        <v>468</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>295</v>
+        <v>468</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4099,16 +4099,16 @@
     </row>
     <row r="57" spans="1:12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>293</v>
+        <v>474</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>140</v>
@@ -4123,44 +4123,44 @@
     </row>
     <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G60" s="2" t="b">
         <v>1</v>
@@ -4168,86 +4168,86 @@
     </row>
     <row r="61" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>340</v>
+        <v>469</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>340</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>106</v>
@@ -4255,19 +4255,19 @@
     </row>
     <row r="67" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="F67" t="s">
         <v>120</v>
@@ -4278,78 +4278,78 @@
     </row>
     <row r="68" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>120</v>
@@ -4357,50 +4357,50 @@
     </row>
     <row r="73" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>372</v>
+        <v>470</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="G75" s="3" t="b">
         <v>1</v>
@@ -4408,22 +4408,22 @@
     </row>
     <row r="76" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="G76" s="2" t="b">
         <v>1</v>
@@ -4431,16 +4431,16 @@
     </row>
     <row r="77" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="E77" t="s">
         <v>140</v>
@@ -4448,22 +4448,22 @@
     </row>
     <row r="78" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="G78" s="2" t="b">
         <v>1</v>
@@ -4471,16 +4471,16 @@
     </row>
     <row r="79" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="E79" t="s">
         <v>126</v>
@@ -4488,70 +4488,70 @@
     </row>
     <row r="80" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="G83" s="2" t="b">
         <v>1</v>
@@ -4559,39 +4559,39 @@
     </row>
     <row r="84" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="E84" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="G85" s="2" t="b">
         <v>1</v>
@@ -4599,39 +4599,39 @@
     </row>
     <row r="86" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="E86" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="G87" s="2" t="b">
         <v>1</v>
@@ -4639,19 +4639,19 @@
     </row>
     <row r="88" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E88" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4659,13 +4659,13 @@
     </row>
     <row r="94" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4678,7 +4678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4898,13 +4898,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -5067,7 +5067,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -5087,7 +5087,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -5098,13 +5098,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -5113,7 +5113,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -5326,18 +5326,18 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
         <v>106</v>
@@ -5348,30 +5348,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D4" t="s">
         <v>124</v>
@@ -5379,16 +5379,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
@@ -5396,13 +5396,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -5410,36 +5410,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="D8" t="s">
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F8">
         <v>32429</v>
@@ -5447,19 +5447,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F9">
         <v>32429</v>
@@ -5467,19 +5467,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="D10" t="s">
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F10">
         <v>32429</v>
@@ -5534,7 +5534,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -5568,13 +5568,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -5594,7 +5594,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -5614,7 +5614,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -5634,7 +5634,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -5654,7 +5654,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -5674,7 +5674,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -5694,7 +5694,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -5714,7 +5714,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -5728,13 +5728,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5748,13 +5748,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -5768,13 +5768,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5788,13 +5788,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5808,13 +5808,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="D16">
         <v>75</v>
@@ -5828,13 +5828,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -5848,13 +5848,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -5868,13 +5868,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="D19">
         <v>30</v>
@@ -5896,7 +5896,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>29</v>
@@ -5950,61 +5950,61 @@
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="F6" s="4">
         <v>5</v>
@@ -6012,19 +6012,19 @@
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="F7" s="4">
         <v>7</v>
